--- a/Names_List.xlsx
+++ b/Names_List.xlsx
@@ -17,42 +17,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>shashank</t>
-  </si>
-  <si>
-    <t>indhu</t>
-  </si>
-  <si>
-    <t>jeevan</t>
-  </si>
-  <si>
-    <t>vinit</t>
-  </si>
-  <si>
-    <t>prabhu</t>
-  </si>
-  <si>
-    <t>muzz</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>juckerburg</t>
-  </si>
-  <si>
-    <t>Jeeevan</t>
-  </si>
-  <si>
-    <t>ljaya</t>
-  </si>
-  <si>
-    <t>shiva</t>
+    <t>Uma Bheemashwari</t>
+  </si>
+  <si>
+    <t>Keerthana Yadav</t>
+  </si>
+  <si>
+    <t>Adithya S</t>
+  </si>
+  <si>
+    <t>Mansa</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Summayya M</t>
+  </si>
+  <si>
+    <t>Badigir Jeevitha</t>
+  </si>
+  <si>
+    <t>Akshatha GN</t>
+  </si>
+  <si>
+    <t>Nasreen V</t>
+  </si>
+  <si>
+    <t>Summayya Banu</t>
+  </si>
+  <si>
+    <t>Bhoomika</t>
+  </si>
+  <si>
+    <t>Rajeshwari S</t>
+  </si>
+  <si>
+    <t>Shirin S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharathi </t>
+  </si>
+  <si>
+    <t>Deepa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soniya </t>
+  </si>
+  <si>
+    <t>Neela</t>
+  </si>
+  <si>
+    <t>Geetha K</t>
+  </si>
+  <si>
+    <t>KN Kavana</t>
+  </si>
+  <si>
+    <t>Mamatha Y</t>
+  </si>
+  <si>
+    <t>Oli shobha</t>
+  </si>
+  <si>
+    <t>Preethi M</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Sonu K kalmodi</t>
+  </si>
+  <si>
+    <t>Swathi M</t>
+  </si>
+  <si>
+    <t>Bhuvenshwari</t>
+  </si>
+  <si>
+    <t>Ashwini C Gollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aishwarya </t>
+  </si>
+  <si>
+    <t>Ashwini H</t>
+  </si>
+  <si>
+    <t>Amrutha NH</t>
+  </si>
+  <si>
+    <t>Bhagya B urikar</t>
+  </si>
+  <si>
+    <t>Bhagyashree</t>
+  </si>
+  <si>
+    <t>Geetha</t>
+  </si>
+  <si>
+    <t>Keerthana B</t>
+  </si>
+  <si>
+    <t>Manasa</t>
+  </si>
+  <si>
+    <t>Mallamma SG</t>
+  </si>
+  <si>
+    <t>Pavithra</t>
+  </si>
+  <si>
+    <t>SB Shilpa</t>
+  </si>
+  <si>
+    <t>Sahana T</t>
+  </si>
+  <si>
+    <t>Shantha Kumari</t>
+  </si>
+  <si>
+    <t>Sukanya BG</t>
+  </si>
+  <si>
+    <t>T sindhu</t>
+  </si>
+  <si>
+    <t>Vijayalakshmi</t>
+  </si>
+  <si>
+    <t>Sidhamma</t>
+  </si>
+  <si>
+    <t>Nisha Kumari</t>
+  </si>
+  <si>
+    <t>Sahana M</t>
+  </si>
+  <si>
+    <t>Sahana S Jadav</t>
+  </si>
+  <si>
+    <t>Afreen K</t>
+  </si>
+  <si>
+    <t>Akshatha</t>
+  </si>
+  <si>
+    <t>Akshatha G</t>
+  </si>
+  <si>
+    <t>Amrutha B</t>
+  </si>
+  <si>
+    <t>Amrutha KM</t>
+  </si>
+  <si>
+    <t>Amrutha M</t>
+  </si>
+  <si>
+    <t>Anjali BN</t>
+  </si>
+  <si>
+    <t>Bhavani KV</t>
+  </si>
+  <si>
+    <t>Dhanalakshmi D</t>
+  </si>
+  <si>
+    <t>Gouthami Hanni</t>
+  </si>
+  <si>
+    <t>Harshitha</t>
+  </si>
+  <si>
+    <t>Kalavathi BS</t>
+  </si>
+  <si>
+    <t>Kavya V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kavitha </t>
+  </si>
+  <si>
+    <t>Lakshmi CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhu </t>
+  </si>
+  <si>
+    <t>Manasa D</t>
+  </si>
+  <si>
+    <t>Pooja G</t>
+  </si>
+  <si>
+    <t>Pooja HM</t>
+  </si>
+  <si>
+    <t>S Simran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakrihalli Banupriya </t>
+  </si>
+  <si>
+    <t>Sangeetha G</t>
+  </si>
+  <si>
+    <t>Shaik Rukiya</t>
+  </si>
+  <si>
+    <t>Sharanamma</t>
+  </si>
+  <si>
+    <t>Suchithra MG</t>
+  </si>
+  <si>
+    <t>Sujatha</t>
+  </si>
+  <si>
+    <t>Sushma</t>
+  </si>
+  <si>
+    <t>Yashushree</t>
   </si>
 </sst>
 </file>
@@ -419,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -467,20 +659,93 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A18">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -488,10 +753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -533,30 +798,63 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A10">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -598,30 +896,128 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A23">
+    <sortCondition ref="A4"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -663,20 +1059,158 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A31">
+    <sortCondition ref="A6"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>